--- a/assignments/Lab3_Tables.xlsx
+++ b/assignments/Lab3_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF67B16-157D-4F35-8D1E-55E2D8F1D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA88CCA-AD4C-446F-9CD8-D302DD462AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Cont. Vars." sheetId="1" r:id="rId1"/>
@@ -857,6 +857,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -865,12 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894EB763-2756-43D8-B57F-E542E2AE4BBD}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,74 +1224,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1308,7 +1308,7 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1319,11 +1319,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1334,11 +1334,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1370,7 +1370,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1381,11 +1381,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1396,11 +1396,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1421,15 +1421,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
@@ -1440,6 +1431,15 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1461,30 +1461,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
@@ -1497,24 +1497,24 @@
         <v>12</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="19"/>
       <c r="F4" s="20"/>
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1541,7 +1541,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1553,11 +1553,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,11 +1567,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1597,11 +1597,11 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,11 +1611,11 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1641,11 +1641,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1655,11 +1655,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1685,11 +1685,11 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1699,11 +1699,11 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1713,11 +1713,11 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1743,11 +1743,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1757,11 +1757,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1771,11 +1771,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1790,6 +1790,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:J21"/>
@@ -1802,18 +1814,6 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD559-3FF4-453B-8964-3117EECF2A87}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,13 +1835,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
@@ -1914,7 +1914,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1932,7 +1932,7 @@
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1982,7 +1982,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2032,7 +2032,7 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2082,7 +2082,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2148,7 +2148,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
@@ -2197,13 +2197,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/assignments/Lab3_Tables.xlsx
+++ b/assignments/Lab3_Tables.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA88CCA-AD4C-446F-9CD8-D302DD462AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E866B1-D9FE-440C-AA01-A6C8C5DB1070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 - Cont. Vars." sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1 = Cont. Summary Stats" sheetId="5" r:id="rId1"/>
     <sheet name="Table 2 - Cat. Freq. Counts" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3 - Cat. M of Assoc." sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_Hlk231789675" localSheetId="0">'Table 1 - Cont. Vars.'!$A$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +41,7 @@
     <author>Nathan Ellermeier</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{333E2422-9A88-4797-A2E5-B3246CF42994}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{67B1253A-29F6-4FD0-9F18-968FC5BA1E32}">
       <text>
         <r>
           <rPr>
@@ -58,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{4B478241-D17B-4D00-A21F-B4E0AD775A25}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{C3BBB409-3402-4A29-83CD-B369522CD48D}">
       <text>
         <r>
           <rPr>
@@ -72,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{D1F46DDA-B48E-4E45-A53C-41A680648187}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{7F7A507D-82FB-4F47-B16F-BEB9BC44F9A1}">
       <text>
         <r>
           <rPr>
@@ -86,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{9E473757-C93E-40BF-A0D1-6E863753B91A}">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{38C42BCE-C300-4754-AC3F-3D967022F34D}">
       <text>
         <r>
           <rPr>
@@ -100,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{E5259B36-04ED-42FB-8A27-35F04FA4C629}">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{237995D7-2F4D-41C8-BFFA-E5FF47DAA94A}">
       <text>
         <r>
           <rPr>
@@ -114,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{F162BACC-BC5C-4E91-A151-6A04423AD205}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{4CDAD870-9479-47A3-83E5-E7CC4A3BDF62}">
       <text>
         <r>
           <rPr>
@@ -128,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{74FCCE44-AE27-4C52-B087-1C6B4EFE7BB5}">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{8AE68396-F820-459F-A20C-CB75E15A9B4A}">
       <text>
         <r>
           <rPr>
@@ -142,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{255E7A56-D837-4129-9910-A7A4B732D53B}">
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{FAFE0491-AF22-4727-8575-D581B39C45F9}">
       <text>
         <r>
           <rPr>
@@ -349,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Table 1: Continuous variables</t>
   </si>
@@ -423,47 +420,13 @@
     <t>Maternal BMI</t>
   </si>
   <si>
-    <t>All children</t>
-  </si>
-  <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Alive</t>
   </si>
   <si>
-    <r>
-      <t>Missing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Maternal Age</t>
   </si>
   <si>
     <t>Missing</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Friendly reminder to students to subtract missing values from what you see in skim() for "number of rows"</t>
-    </r>
   </si>
   <si>
     <t>Kruskal-Wallis
@@ -594,13 +557,37 @@
   </si>
   <si>
     <t>Child's sex</t>
+  </si>
+  <si>
+    <t>Missing </t>
+  </si>
+  <si>
+    <t>Boxes in grey are to be left blank, as the column value does not apply to that row</t>
+  </si>
+  <si>
+    <t>Friendly reminder to students to subtract missing values from what you see in skim() for "number of rows"</t>
+  </si>
+  <si>
+    <t>Hover over columns with red corners for a reminder on rounding</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>death == 'dead'</t>
+  </si>
+  <si>
+    <t>death == 'alive'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use Lab 3 tables: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,12 +625,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -651,13 +632,29 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,12 +663,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCAAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -815,48 +848,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="2" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -869,26 +959,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
+    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Accent4" xfId="5" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="7" builtinId="51"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
@@ -896,6 +1053,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFCAAAA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1203,590 +1365,608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894EB763-2756-43D8-B57F-E542E2AE4BBD}">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D729D0D-2595-4EB7-9FEA-BC9EA18EDE94}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="18" style="18" customWidth="1"/>
+    <col min="3" max="9" width="8.88671875" style="18"/>
+    <col min="10" max="10" width="13.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="J10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
+      <c r="B12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34"/>
+      <c r="B15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1" t="s">
+      <c r="B16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CF663A-15E9-4E7D-8832-0D087C34448F}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="2" width="20.6640625" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43"/>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="1" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42"/>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="34"/>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="1" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="1" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1816,384 +1996,392 @@
     <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD559-3FF4-453B-8964-3117EECF2A87}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43"/>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41"/>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="42"/>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2206,6 +2394,7 @@
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assignments/Lab3_Tables.xlsx
+++ b/assignments/Lab3_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E866B1-D9FE-440C-AA01-A6C8C5DB1070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80103E-63DD-4C91-BCD0-8A2720274E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 = Cont. Summary Stats" sheetId="5" r:id="rId1"/>
@@ -947,6 +947,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -977,6 +989,24 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1002,24 +1032,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1027,18 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1398,74 +1398,74 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1482,7 +1482,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="13" t="s">
         <v>60</v>
       </c>
@@ -1493,11 +1493,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-    </row>
-    <row r="14" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
       <c r="B14" s="13" t="s">
         <v>61</v>
       </c>
@@ -1508,11 +1508,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="13" t="s">
         <v>55</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1544,7 +1544,7 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="16" t="s">
         <v>60</v>
       </c>
@@ -1555,11 +1555,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="16" t="s">
         <v>61</v>
       </c>
@@ -1570,11 +1570,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1595,6 +1595,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:A11"/>
@@ -1605,15 +1614,6 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1624,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CF663A-15E9-4E7D-8832-0D087C34448F}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1636,60 +1636,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -1716,7 +1716,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1728,11 +1728,11 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1742,11 +1742,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1772,11 +1772,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1786,11 +1786,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1816,11 +1816,11 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1830,11 +1830,11 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1860,11 +1860,11 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
@@ -1874,11 +1874,11 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
@@ -1888,11 +1888,11 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="13" t="s">
         <v>12</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -1918,11 +1918,11 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
@@ -1932,11 +1932,11 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="16" t="s">
         <v>32</v>
       </c>
@@ -1946,11 +1946,11 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1970,6 +1970,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="I3:I4"/>
@@ -1982,18 +1994,6 @@
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:H4"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD559-3FF4-453B-8964-3117EECF2A87}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,50 +2017,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="22"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -2115,7 +2115,7 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2165,7 +2165,7 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
@@ -2181,7 +2181,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2215,7 +2215,7 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2265,7 +2265,7 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="13" t="s">
         <v>49</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="13" t="s">
         <v>50</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2331,7 +2331,7 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="16" t="s">
         <v>31</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="16" t="s">
         <v>32</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="16" t="s">
         <v>12</v>
       </c>

--- a/assignments/Lab3_Tables.xlsx
+++ b/assignments/Lab3_Tables.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80103E-63DD-4C91-BCD0-8A2720274E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD9F13-04E7-4B79-879D-E55AE3D43D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BFF9CCF7-7857-41CB-8234-CF6D12DA6E19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 = Cont. Summary Stats" sheetId="5" r:id="rId1"/>
+    <sheet name="Table 1 - Cont. Summary Stats" sheetId="5" r:id="rId1"/>
     <sheet name="Table 2 - Cat. Freq. Counts" sheetId="2" r:id="rId2"/>
     <sheet name="Table 3 - Cat. M of Assoc." sheetId="3" r:id="rId3"/>
   </sheets>
@@ -437,9 +437,6 @@
 p-value</t>
   </si>
   <si>
-    <t>All Subjects</t>
-  </si>
-  <si>
     <t>Dead</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t xml:space="preserve">How to use Lab 3 tables: </t>
+  </si>
+  <si>
+    <t>All Children</t>
   </si>
 </sst>
 </file>
@@ -959,34 +959,61 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,33 +1032,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1384,92 +1384,92 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1482,9 +1482,9 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1493,13 +1493,13 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1508,13 +1508,13 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="15"/>
@@ -1527,11 +1527,11 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1544,9 +1544,9 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1555,13 +1555,13 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1570,11 +1570,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1590,20 +1590,11 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:A11"/>
@@ -1614,6 +1605,15 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CF663A-15E9-4E7D-8832-0D087C34448F}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,60 +1636,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="39" t="s">
+      <c r="J3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -1698,29 +1698,29 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>18</v>
+      <c r="A6" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1728,13 +1728,13 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1742,11 +1742,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1760,11 +1760,11 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
-        <v>54</v>
+      <c r="A9" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1772,13 +1772,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1786,11 +1786,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1804,11 +1804,11 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1816,13 +1816,13 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1830,11 +1830,11 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
@@ -1848,11 +1848,11 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1860,13 +1860,13 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1874,13 +1874,13 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1888,11 +1888,11 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="13" t="s">
         <v>12</v>
       </c>
@@ -1906,11 +1906,11 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1918,13 +1918,13 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1932,13 +1932,13 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -1946,11 +1946,11 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1965,11 +1965,23 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:H4"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:J21"/>
@@ -1982,18 +1994,6 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABD559-3FF4-453B-8964-3117EECF2A87}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -2017,17 +2017,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
@@ -2046,13 +2046,13 @@
       <c r="A3" s="20"/>
       <c r="B3" s="22"/>
       <c r="C3" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="28"/>
@@ -2075,33 +2075,33 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2115,9 +2115,9 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2131,7 +2131,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2147,11 +2147,11 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
-        <v>54</v>
+      <c r="A8" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2165,9 +2165,9 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2181,7 +2181,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2197,11 +2197,11 @@
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>22</v>
+      <c r="A11" s="44" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2215,9 +2215,9 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -2231,7 +2231,7 @@
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2247,11 +2247,11 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2265,9 +2265,9 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2281,9 +2281,9 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2297,7 +2297,7 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
@@ -2313,11 +2313,11 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>29</v>
+      <c r="A18" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -2331,9 +2331,9 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2347,9 +2347,9 @@
       <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -2363,7 +2363,7 @@
       <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="16" t="s">
         <v>12</v>
       </c>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
